--- a/chat_history_results/roleplay_test_1007_MISTRAL_0.xlsx
+++ b/chat_history_results/roleplay_test_1007_MISTRAL_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo_S\Desktop\logi2dial\chat_history_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B19F3EA-BAF2-4907-8F6A-E4559E887626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A0E606-6A5D-481A-B405-DDEAA860EEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2350,8 +2350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
